--- a/DOM_Banner/output/dept_banner/Satinder Singh_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Satinder Singh_2023.xlsx
@@ -744,22 +744,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of Medicine and Surgery</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210226177</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2049-0801</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Satinder Singh_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Satinder Singh_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.; From the Department of Radiology, University of Alabama at Birmingham, 619 S 19th St, Birmingham, AL 35233.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387296834</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Prospective Evaluation of AI Triage of Pulmonary Emboli on CT Pulmonary Angiograms</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Radiology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Radiological Society of North America</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1148/radiol.230702</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37787676</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1148/radiol.230702</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Vardhman Mahavir Medical College and Safdarjung Hospital, New Delhi; University of Oklahoma, Oklahoma City, OK; Vardhman Mahavir Medical College and Safdarjung Hospital, New Delhi; University of Kansas Medical Centre, Kansas City, KS; Dow University of Health Sciences, Karachi, Pakistan; Kempegowda Institute of Medical Sciences, Bangalore; College of Medicine and Sagore Dutta Hospital, Kolkata, West Bengal; Pt. B.D.S. Post Graduate Institute of Medical Sciences Rohtak, India; Nepalese Army Institute of Health Sciences, Kathmandu, Nepal; Department of Radiology, The University of Alabama at Birmingham, AL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383711123</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Coronary allograft vasculopathy in post-heart transplant patients: pathogenesis and role of cardiac computed tomography in diagnosis—a comprehensive review</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Annals of Medicine and Surgery</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/ms9.0000000000000942</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37427227</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/ms9.0000000000000942</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>BDS, MFDS RCPS (Glasgow), FICD Demonstrator / Registrar De’Montmorency College of dentistry, Lahore; Vice Principal, Associate Professor &amp; Head of Department of Community Dentistry, Watim Dental College, Rawalpindi; Senior Registrar Department of Operative Dentistry Dr Ishrat ul ebad Khan Institute of Oral Health Sciences Dow University of Health Sciences; Lecturer Department of Oral Medicine Hamdard University Dental College, Karachi; BDS (TMDC-RC, INDIA) │Masters in Global Health Administration (Fairleigh Dickinson University, Vancouver, CANADA) │General Dentist (Trusmiles Dental Clinic, Punjab, India); Assistant Professor Department of Oral Biology Watim Dental COllege Rawalpindi; Lecturer Department of Periodontology. Dr Ishrat ul ebad Khan Institute of Oral Health Sciences Dow University of Health Sciences</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379053544</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Effect of PRF on extraction socket healing</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>International Journal of Health Sciences (IJHS)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.53730/ijhs.v7ns1.14302</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.53730/ijhs.v7ns1.14302</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385152923</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Profile of head trauma cases in emergency setting of a Tertiary Care Institute of North India</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of forensic medicine and toxicology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.5958/0974-4568.2023.00002.9</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.5958/0974-4568.2023.00002.9</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Cardiothoracic Anesthesia, Department of Anesthesiology and Perioperative Medicine, University of Alabama at Birmingham, Birmingham, Alabama; Division of Cardiovascular Disease, Department of Medicine, University of Alabama at Birmingham, Birmingham, Alabama; Department of Medicine, Plutus Hospitals, Shamshabad, Telangana, India; Division of Cardiovascular Disease, Department of Radiology and Medicine, University of Alabama at Birmingham, Birmingham, Alabama</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388460777</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Two- and Three-Dimensional Transesophageal Echocardiographic Detection of Aortic Dissection Rupture With Extension of Dissection Into the Pulmonary Artery</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>CASE</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.case.2023.09.008</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38197118</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.case.2023.09.008</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
